--- a/CCRB-Data.xlsx
+++ b/CCRB-Data.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="28109"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/celrae/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/TheUnit/NEWPROJECT/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{504D2C58-4E56-054E-BACF-2D311BED503C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" tabRatio="500" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14180" tabRatio="500" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Layout" sheetId="1" r:id="rId1"/>
@@ -18,7 +19,7 @@
     <sheet name="FADO" sheetId="4" r:id="rId4"/>
     <sheet name="Dispositions" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -3483,7 +3484,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -3550,6 +3551,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -3752,15 +3756,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -4041,18 +4045,21 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="29.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
@@ -4364,8 +4371,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z461"/>
@@ -4376,6 +4383,9 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="33.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
@@ -8095,8 +8105,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:Z119"/>
@@ -8109,6 +8119,7 @@
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="20.5" customWidth="1"/>
+    <col min="2" max="2" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="15.75" customHeight="1" x14ac:dyDescent="0.15">
@@ -9449,15 +9460,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr enableFormatConditionsCalculation="0">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A5" sqref="A5:XFD5"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
